--- a/Term Project/Phase 3/insert script/chef.xlsx
+++ b/Term Project/Phase 3/insert script/chef.xlsx
@@ -37,6 +37,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -219,267 +220,117 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1004</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1015</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>1016</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>1017</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
         <v>1153</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
         <v>1208</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
         <v>1215</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
         <v>1223</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
         <v>1235</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
         <v>1236</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
         <v>1239</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
         <v>1240</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
         <v>1241</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
         <v>1247</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
-        <v>1299</v>
       </c>
     </row>
   </sheetData>
